--- a/Methods_Desc+Table_Types+Structure_Types.xlsx
+++ b/Methods_Desc+Table_Types+Structure_Types.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3C862D-73CB-4F3E-A045-95074431B334}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06D2703-E388-449C-ACAA-C39D74916FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Method Description" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="68">
   <si>
     <t>YYT_ITCOO - Itcoo table for email attach</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>Execute send email request</t>
+  </si>
+  <si>
+    <t>TAB_TO_EXCEL_XML</t>
+  </si>
+  <si>
+    <t>Any internal table to excel xml</t>
   </si>
 </sst>
 </file>
@@ -997,21 +1003,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1025,7 +1031,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -1039,9 +1045,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>36</v>
@@ -1050,12 +1056,12 @@
         <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>36</v>
@@ -1064,12 +1070,12 @@
         <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>36</v>
@@ -1078,26 +1084,26 @@
         <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>36</v>
@@ -1106,12 +1112,12 @@
         <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>36</v>
@@ -1120,12 +1126,12 @@
         <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>36</v>
@@ -1134,12 +1140,12 @@
         <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>36</v>
@@ -1148,12 +1154,12 @@
         <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>36</v>
@@ -1162,12 +1168,12 @@
         <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>36</v>
@@ -1176,12 +1182,12 @@
         <v>46</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>36</v>
@@ -1190,12 +1196,12 @@
         <v>46</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>36</v>
@@ -1204,12 +1210,12 @@
         <v>46</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>36</v>
@@ -1218,6 +1224,20 @@
         <v>46</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1234,24 +1254,24 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.69140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:17" x14ac:dyDescent="0.4">
       <c r="K19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:17" x14ac:dyDescent="0.4">
       <c r="K21" t="s">
         <v>1</v>
       </c>
@@ -1274,7 +1294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="11:17" x14ac:dyDescent="0.4">
       <c r="K22" t="s">
         <v>6</v>
       </c>
@@ -1297,7 +1317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="11:17" x14ac:dyDescent="0.4">
       <c r="K23" t="s">
         <v>9</v>
       </c>
@@ -1331,14 +1351,14 @@
       <selection activeCell="K21" sqref="K21:Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="11" max="11" width="27.42578125" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
-    <col min="17" max="17" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.3828125" customWidth="1"/>
+    <col min="13" max="13" width="19.84375" customWidth="1"/>
+    <col min="17" max="17" width="62.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1346,7 +1366,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="K21" t="s">
         <v>1</v>
       </c>
@@ -1369,7 +1389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="K22" t="s">
         <v>6</v>
       </c>
@@ -1392,7 +1412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="K23" t="s">
         <v>15</v>
       </c>
@@ -1412,7 +1432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="K24" t="s">
         <v>18</v>
       </c>
@@ -1449,24 +1469,24 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="11" max="11" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.3046875" customWidth="1"/>
+    <col min="13" max="13" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:17" x14ac:dyDescent="0.4">
       <c r="K19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:17" x14ac:dyDescent="0.4">
       <c r="K21" t="s">
         <v>1</v>
       </c>
@@ -1489,7 +1509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="11:17" x14ac:dyDescent="0.4">
       <c r="K22" t="s">
         <v>6</v>
       </c>
@@ -1512,7 +1532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="11:17" x14ac:dyDescent="0.4">
       <c r="K23" t="s">
         <v>25</v>
       </c>
@@ -1532,7 +1552,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="11:17" x14ac:dyDescent="0.4">
       <c r="K24" t="s">
         <v>28</v>
       </c>
